--- a/Inputs/Template.xlsx
+++ b/Inputs/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monty.minh\Documents\Optimizer\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFE9401-8D36-42AE-B897-8E805733A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDEC0B-346F-4585-B8E5-F48EECADA1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product List" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Factory Per Product" sheetId="3" r:id="rId3"/>
     <sheet name="Inbound Cost Per Product" sheetId="4" r:id="rId4"/>
     <sheet name="Outbound Cost Per Product" sheetId="5" r:id="rId5"/>
+    <sheet name="Efficiency Per Product" sheetId="6" r:id="rId6"/>
+    <sheet name="Capacity Constraints" sheetId="7" r:id="rId7"/>
+    <sheet name="Capacity Per Constraints" sheetId="11" r:id="rId8"/>
+    <sheet name="Supply Constraints" sheetId="8" r:id="rId9"/>
+    <sheet name="Demand Volume Per Product" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,23 +44,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Factory</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="16">
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Bulk-Cow</t>
+  </si>
+  <si>
+    <t>Bulk-Chicken</t>
+  </si>
+  <si>
+    <t>Bag-Cow</t>
+  </si>
+  <si>
+    <t>Binh Dinh</t>
+  </si>
+  <si>
+    <t>Thai Nguyen</t>
+  </si>
+  <si>
+    <t>Vinh Phuc</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Dirac</t>
+  </si>
+  <si>
+    <t>Fermi</t>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
+    <t>FACTORY</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>CONSTRAINTS</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,9 +123,70 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -83,8 +196,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,37 +520,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546FCF4F-AC7A-445A-B88E-BB0DAE5D9310}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:D5" ca="1" si="0">RAND() * 100</f>
+        <v>68.970113654018462</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:D5" ca="1" si="1">RAND() * 100</f>
+        <v>45.377005968241981</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>79.519478179309914</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>96.007613416760648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>98.156266318515108</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.909221049333979</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBED1AA-F112-4C9A-8BAA-ACD97F8A5A33}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -405,75 +687,715 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD709A91-D259-4A5E-AE90-B22118602BAC}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557598B5-D1F8-4798-BF41-8F2501AD05FB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f ca="1">B4</f>
+        <v>52.591639423566839</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B3:B5" ca="1" si="0">RAND() * 100</f>
+        <v>52.591639423566839</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <f t="shared" ref="C3:D5" ca="1" si="1">RAND() * 100</f>
+        <v>69.397071603678157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>77.831073961723177</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>94.517439243240148</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42.596059512780428</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41647A71-E957-41B6-AFC6-49DB72BA21EB}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:J6" ca="1" si="0">RAND() * 100</f>
+        <v>47.289927758558228</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.962019944941588</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B6" ca="1" si="1">RAND() * 100</f>
+        <v>22.916793946390346</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8539627262079534</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.655286977747163</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>51.542260516308069</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>68.448106969057704</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3511617710008235</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.764267865345928</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.370179745724172</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4013562989788859</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.438400794958397</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CFE2B7-7389-410F-9447-F4D54938650F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.51523152623413315</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B5" ca="1" si="0">RAND()</f>
+        <v>0.3800205123289575</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <f t="shared" ref="C3:D5" ca="1" si="1">RAND()</f>
+        <v>0.47797999640230338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44221912031337229</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83524886379931707</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68645727799609846</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0653266-ED5F-4197-A1AD-DFEA293C8435}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557598B5-D1F8-4798-BF41-8F2501AD05FB}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148CB947-D690-4EF9-89C8-29D6719D3E03}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="B3" s="2">
+        <v>500</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>800</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41647A71-E957-41B6-AFC6-49DB72BA21EB}">
-  <dimension ref="A2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C634A-88A6-437C-BAF2-F26805DA3760}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>